--- a/Data/Sacramento_annual_data.xlsx
+++ b/Data/Sacramento_annual_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\CalFresh\CalFresh\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591328B1-4CD2-453C-805A-8F6394135C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B1BCBA-A8BC-4A0B-A8FE-4FEB9ACF3601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet1!$A$1:$M$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Calendar Year</t>
   </si>
@@ -75,6 +78,15 @@
   </si>
   <si>
     <t>Percentage CF Population</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Total % SSI Recip CY</t>
   </si>
 </sst>
 </file>
@@ -116,8 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,6 +150,1386 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Sacramento_annual_data.xlsx]Sheet1!SSI %</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Total % of SSI Recipients</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0">
+                <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> in Sacramento CY</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="49000">
+                <a:srgbClr val="FBDD7C"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="5000"/>
+                    <a:lumOff val="95000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="49000">
+                  <a:srgbClr val="FBDD7C"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.2251514265339601E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.21020274478641E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1497945478692497E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0394247647134403E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9500464530588697E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8397479354618999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7704785814233602E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6498331448018201E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5469123565540099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E646-4475-9E1A-CCDF57C7D84C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="136"/>
+        <c:overlap val="-27"/>
+        <c:axId val="637875840"/>
+        <c:axId val="637874760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="637875840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bahnschrift SemiBold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="637874760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="637874760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="637875840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>178593</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FB0EE8-D66F-CE30-1C13-025A4D4F5677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Phoebe Miao" refreshedDate="45288.402915046296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="9" xr:uid="{40E6CD3D-7455-4432-99FF-FBB13A47FE78}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Annual_Data"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Calendar Year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2014" maxValue="2022" count="9">
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Elderly CalFresh July" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8287" maxValue="42103"/>
+    </cacheField>
+    <cacheField name="Age 18 to 59 CalFresh July" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="96234" maxValue="111012"/>
+    </cacheField>
+    <cacheField name="Children CalFresh July" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="80749" maxValue="104684"/>
+    </cacheField>
+    <cacheField name="ESL CalFresh July CY" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="43300" maxValue="55535"/>
+    </cacheField>
+    <cacheField name="Total Population CY" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1473817" maxValue="1571846"/>
+    </cacheField>
+    <cacheField name="Total SSI Recipients CY" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="55752" maxValue="62730"/>
+    </cacheField>
+    <cacheField name="Percentage Elderly CF Partip" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.62281477279744E-3" maxValue="2.6785702925095699E-2"/>
+    </cacheField>
+    <cacheField name="Age 18 to 59 CF Partip" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.2764631189378195E-2" maxValue="7.4507098215244497E-2"/>
+    </cacheField>
+    <cacheField name="Percentage Children CF Partip" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.1810768688840901E-2" maxValue="7.1029171192895701E-2"/>
+    </cacheField>
+    <cacheField name="Percentage ESL CF Partip" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.8309886688534399E-2" maxValue="3.5331069328674698E-2"/>
+    </cacheField>
+    <cacheField name="Percentage SSI Recip CY" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.5469123565540099E-2" maxValue="4.2251514265339601E-2"/>
+    </cacheField>
+    <cacheField name="Percentage CF Population" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.15920878770265601" maxValue="0.18520071304695199"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <n v="8287"/>
+    <n v="106471"/>
+    <n v="104684"/>
+    <n v="48228"/>
+    <n v="1473817"/>
+    <n v="62271"/>
+    <n v="5.62281477279744E-3"/>
+    <n v="7.2241669081032397E-2"/>
+    <n v="7.1029171192895701E-2"/>
+    <n v="3.2723194263602602E-2"/>
+    <n v="4.2251514265339601E-2"/>
+    <n v="0.18161684931032801"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="9586"/>
+    <n v="111012"/>
+    <n v="104370"/>
+    <n v="48606"/>
+    <n v="1489952"/>
+    <n v="62730"/>
+    <n v="6.4337643091858E-3"/>
+    <n v="7.4507098215244497E-2"/>
+    <n v="7.0049236485470706E-2"/>
+    <n v="3.2622527437125501E-2"/>
+    <n v="4.21020274478641E-2"/>
+    <n v="0.183612626447026"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10622"/>
+    <n v="105972"/>
+    <n v="100084"/>
+    <n v="47168"/>
+    <n v="1506677"/>
+    <n v="62524"/>
+    <n v="7.0499516485616996E-3"/>
+    <n v="7.0334915844603704E-2"/>
+    <n v="6.6426978045062104E-2"/>
+    <n v="3.1305979981110697E-2"/>
+    <n v="4.1497945478692497E-2"/>
+    <n v="0.17511782551933799"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="11247"/>
+    <n v="101425"/>
+    <n v="96865"/>
+    <n v="47124"/>
+    <n v="1524524"/>
+    <n v="61582"/>
+    <n v="7.3773846787587496E-3"/>
+    <n v="6.6528962482715906E-2"/>
+    <n v="6.3537864933579297E-2"/>
+    <n v="3.0910631777525299E-2"/>
+    <n v="4.0394247647134403E-2"/>
+    <n v="0.16835484387257901"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="11983"/>
+    <n v="96234"/>
+    <n v="91993"/>
+    <n v="43300"/>
+    <n v="1529501"/>
+    <n v="60416"/>
+    <n v="7.8345813438500493E-3"/>
+    <n v="6.2918559713266001E-2"/>
+    <n v="6.01457599570056E-2"/>
+    <n v="2.8309886688534399E-2"/>
+    <n v="3.9500464530588697E-2"/>
+    <n v="0.15920878770265601"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="22704"/>
+    <n v="99215"/>
+    <n v="86191"/>
+    <n v="44201"/>
+    <n v="1553253"/>
+    <n v="59641"/>
+    <n v="1.46170649597973E-2"/>
+    <n v="6.3875621035336796E-2"/>
+    <n v="5.5490638035143001E-2"/>
+    <n v="2.84570511050035E-2"/>
+    <n v="3.8397479354618999E-2"/>
+    <n v="0.16244037513528101"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="32285"/>
+    <n v="108309"/>
+    <n v="86577"/>
+    <n v="49827"/>
+    <n v="1562242"/>
+    <n v="58904"/>
+    <n v="2.0665812338933401E-2"/>
+    <n v="6.9329207638765294E-2"/>
+    <n v="5.5418430691275701E-2"/>
+    <n v="3.1894546427506103E-2"/>
+    <n v="3.7704785814233602E-2"/>
+    <n v="0.17730799709648101"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="35138"/>
+    <n v="97821"/>
+    <n v="80749"/>
+    <n v="47466"/>
+    <n v="1558537"/>
+    <n v="56884"/>
+    <n v="2.25455026091777E-2"/>
+    <n v="6.2764631189378195E-2"/>
+    <n v="5.1810768688840901E-2"/>
+    <n v="3.0455484855348301E-2"/>
+    <n v="3.6498331448018201E-2"/>
+    <n v="0.16757638734274499"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="42103"/>
+    <n v="108069"/>
+    <n v="85400"/>
+    <n v="55535"/>
+    <n v="1571846"/>
+    <n v="55752"/>
+    <n v="2.6785702925095699E-2"/>
+    <n v="6.8752918542910699E-2"/>
+    <n v="5.4331022250271303E-2"/>
+    <n v="3.5331069328674698E-2"/>
+    <n v="3.5469123565540099E-2"/>
+    <n v="0.18520071304695199"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1314E02-4CF1-4F1C-BD3A-C56B51199888}" name="SSI %" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A15:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total % SSI Recip CY" fld="11" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,14 +1839,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.06640625" bestFit="1" customWidth="1"/>
@@ -873,11 +2272,100 @@
         <v>0.18520071304695199</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.2251514265339601E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4.21020274478641E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4.1497945478692497E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4.0394247647134403E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="3">
+        <v>3.9500464530588697E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3.8397479354618999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3.7704785814233602E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3.6498331448018201E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3.5469123565540099E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.35381591955203018</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Data/Sacramento_annual_data.xlsx
+++ b/Data/Sacramento_annual_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phoeb\Desktop\UCB github drive\CalFresh\CalFresh\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B1BCBA-A8BC-4A0B-A8FE-4FEB9ACF3601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFFF61D-32F6-40B1-A353-938CEFC9160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId2"/>
+    <pivotCache cacheId="1" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Calendar Year</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Total % SSI Recip CY</t>
+  </si>
+  <si>
+    <t>Total Percentage CF Population</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,506 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Sacramento_annual_data.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Total Percentage of CalFresh Population</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="38100" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="9"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$30:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.18161684931032801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.183612626447026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17511782551933799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16835484387257901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15920878770265601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16244037513528101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17730799709648101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16757638734274499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18520071304695199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-71B0-4CD5-9A52-A7DB8BCE2CB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="291665824"/>
+        <c:axId val="291670144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="291665824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Bahnschrift SemiBold Condensed" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291670144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291670144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="291665824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="92D050">
+        <a:alpha val="65000"/>
+      </a:srgbClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1192,20 +1694,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>178593</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>254793</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>671513</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1225,6 +2230,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>269080</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE918590-1328-668E-D46E-CA6F2EBD6976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1438,7 +2479,102 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1314E02-4CF1-4F1C-BD3A-C56B51199888}" name="SSI %" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3CCF931F-ED18-405D-9BB7-FA3DBF645697}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A29:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total Percentage CF Population" fld="12" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1314E02-4CF1-4F1C-BD3A-C56B51199888}" name="SSI %" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A15:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -1839,16 +2975,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.06640625" bestFit="1" customWidth="1"/>
@@ -2360,12 +3496,100 @@
         <v>0.35381591955203018</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.18161684931032801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.183612626447026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.17511782551933799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.16835484387257901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.15920878770265601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.16244037513528101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.17730799709648101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.16757638734274499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.18520071304695199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1.5604364054733859</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
